--- a/data/Fortunas.xlsx
+++ b/data/Fortunas.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L01268185\Desktop\Taller Tec\Sesion 1\Ejercicios Presentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\CADI_VisvPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39703C9-BE98-47FE-BF47-E43B21F1C135}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCB1A13-0CBE-4EFE-A7A5-5A26DEECC2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{747DC928-235C-48B9-B7DC-0C1367A3BC41}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{2803A4F4-8992-4A62-AE11-F109029BAB6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="2023" sheetId="1" r:id="rId1"/>
+    <sheet name="2022" sheetId="2" r:id="rId2"/>
+    <sheet name="2021" sheetId="3" r:id="rId3"/>
+    <sheet name="2020" sheetId="4" r:id="rId4"/>
+    <sheet name="2019" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,12 +40,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="26">
+  <si>
+    <t>Año</t>
+  </si>
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Pais</t>
+    <t>País</t>
   </si>
   <si>
     <t>Edad</t>
@@ -51,79 +60,64 @@
     <t>Jeff Bezos</t>
   </si>
   <si>
-    <t>USA</t>
+    <t>Estados Unidos</t>
   </si>
   <si>
     <t>Amazon</t>
   </si>
   <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Tesla, SpaceX</t>
+  </si>
+  <si>
+    <t>Bernard Arnault y su familia</t>
+  </si>
+  <si>
+    <t>Francia</t>
+  </si>
+  <si>
+    <t>LVMH</t>
+  </si>
+  <si>
     <t>Bill Gates</t>
   </si>
   <si>
     <t>Microsoft</t>
   </si>
   <si>
-    <t>B Arnault</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>LVMH</t>
-  </si>
-  <si>
-    <t>W Buffett</t>
-  </si>
-  <si>
-    <t>Berkshire</t>
-  </si>
-  <si>
-    <t>M. Zuckerberg</t>
+    <t>Mark Zuckerberg</t>
   </si>
   <si>
     <t>Facebook</t>
   </si>
   <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
     <t>Larry Ellison</t>
   </si>
   <si>
     <t>Oracle</t>
   </si>
   <si>
-    <t>A. Ortega</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Zara</t>
-  </si>
-  <si>
     <t>Larry Page</t>
   </si>
   <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Carlos Slim</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>American Movil</t>
-  </si>
-  <si>
-    <t>M. Ambani Ind</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>Reliance Limites</t>
+    <t>Sergey Brin</t>
   </si>
   <si>
     <t>Fortuna</t>
+  </si>
+  <si>
+    <t>Steve Ballmer</t>
   </si>
 </sst>
 </file>
@@ -147,7 +141,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -155,29 +149,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,206 +468,908 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E07044-4975-48EB-AC7E-7AB513B1E3A2}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5815B-F43E-4E7C-B47A-0BC272CBD4BE}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>186</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>177</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>148</v>
+      </c>
+      <c r="E5">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>138</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>134</v>
+      </c>
+      <c r="E7">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15CA4A0-D57F-4C03-A804-DB3A5CF1348F}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>189.6</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>163.9</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="E4">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="E5">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>120.8</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>108.3</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2022</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>103.5</v>
+      </c>
+      <c r="E8">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1877A5-5AB4-4002-8709-1F73D6AE6913}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>177</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>151</v>
+      </c>
+      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2021</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>124</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>97</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>96</v>
+      </c>
+      <c r="E7">
+        <v>90</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>93</v>
+      </c>
+      <c r="E8">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EBA832-1A38-4962-AC5E-5D86CF32BF8D}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>185</v>
+      </c>
+      <c r="E2">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>115</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
         <v>113</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>91</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2020</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>80</v>
+      </c>
+      <c r="E6">
+        <v>89</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>74</v>
+      </c>
+      <c r="E7">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>68.7</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF57913-9ECB-414A-8CE2-2849EB72BDFD}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>131</v>
+      </c>
+      <c r="E2">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>107.1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
-        <v>106.6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>70</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>86.9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>89</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>74.900000000000006</v>
-      </c>
-      <c r="D6" s="1">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>69.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>82.5</v>
+      </c>
+      <c r="E5">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="D8" s="1">
-        <v>83</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>61.2</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>67.5</v>
+      </c>
+      <c r="E7">
         <v>46</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2">
-        <v>60.4</v>
-      </c>
-      <c r="D10" s="1">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="2">
-        <v>60.4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>66.5</v>
+      </c>
+      <c r="E8">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/Fortunas.xlsx
+++ b/data/Fortunas.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\CADI_VisvPython\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L01268185\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCB1A13-0CBE-4EFE-A7A5-5A26DEECC2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE79CFD-D347-47C4-8CFA-6DB42CE15DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{2803A4F4-8992-4A62-AE11-F109029BAB6B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2803A4F4-8992-4A62-AE11-F109029BAB6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="1" r:id="rId1"/>
-    <sheet name="2022" sheetId="2" r:id="rId2"/>
-    <sheet name="2021" sheetId="3" r:id="rId3"/>
-    <sheet name="2020" sheetId="4" r:id="rId4"/>
-    <sheet name="2019" sheetId="5" r:id="rId5"/>
+    <sheet name="Total" sheetId="6" r:id="rId1"/>
+    <sheet name="2023" sheetId="1" r:id="rId2"/>
+    <sheet name="2022" sheetId="2" r:id="rId3"/>
+    <sheet name="2021" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="4" r:id="rId5"/>
+    <sheet name="2019" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="26">
   <si>
     <t>Año</t>
   </si>
@@ -468,11 +469,754 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A46C44F-7E16-4B90-A1B5-112637457912}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>186</v>
+      </c>
+      <c r="E2">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>177</v>
+      </c>
+      <c r="E3">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>148</v>
+      </c>
+      <c r="E5">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>138</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>134</v>
+      </c>
+      <c r="E7">
+        <v>91</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>101</v>
+      </c>
+      <c r="E8">
+        <v>78</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>189.6</v>
+      </c>
+      <c r="E9">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>163.9</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>157.30000000000001</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2022</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="E12">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2022</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>120.8</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>108.3</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>103.5</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2021</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>177</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>151</v>
+      </c>
+      <c r="E17">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>124</v>
+      </c>
+      <c r="E19">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>97</v>
+      </c>
+      <c r="E20">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>96</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>185</v>
+      </c>
+      <c r="E23">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>115</v>
+      </c>
+      <c r="E24">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>113</v>
+      </c>
+      <c r="E25">
+        <v>64</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>80</v>
+      </c>
+      <c r="E27">
+        <v>89</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>68.7</v>
+      </c>
+      <c r="E29">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2019</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>131</v>
+      </c>
+      <c r="E30">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2019</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>112</v>
+      </c>
+      <c r="E31">
+        <v>69</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>106</v>
+      </c>
+      <c r="E32">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>82.5</v>
+      </c>
+      <c r="E33">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>76</v>
+      </c>
+      <c r="E34">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>67.5</v>
+      </c>
+      <c r="E35">
+        <v>46</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>66.5</v>
+      </c>
+      <c r="E36">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E5815B-F43E-4E7C-B47A-0BC272CBD4BE}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,12 +1395,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15CA4A0-D57F-4C03-A804-DB3A5CF1348F}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,12 +1578,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1877A5-5AB4-4002-8709-1F73D6AE6913}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1015,12 +1759,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EBA832-1A38-4962-AC5E-5D86CF32BF8D}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1196,12 +1940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF57913-9ECB-414A-8CE2-2849EB72BDFD}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
